--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>76.99161945624601</v>
+        <v>36.23704304598045</v>
       </c>
       <c r="R2">
-        <v>692.9245751062141</v>
+        <v>326.133387413824</v>
       </c>
       <c r="S2">
-        <v>0.003407623952709187</v>
+        <v>0.001125741759813923</v>
       </c>
       <c r="T2">
-        <v>0.003827526246915089</v>
+        <v>0.001303251946201785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>2351.545136715466</v>
+        <v>1656.145117060914</v>
       </c>
       <c r="R3">
-        <v>21163.90623043919</v>
+        <v>14905.30605354822</v>
       </c>
       <c r="S3">
-        <v>0.1040786203789657</v>
+        <v>0.05144988558315038</v>
       </c>
       <c r="T3">
-        <v>0.1169036421775616</v>
+        <v>0.05956265096640204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>1004.20982412406</v>
+        <v>0.3342760295004445</v>
       </c>
       <c r="R4">
-        <v>6025.258944744362</v>
+        <v>3.008484265504</v>
       </c>
       <c r="S4">
-        <v>0.04444599911521174</v>
+        <v>1.038463555748606E-05</v>
       </c>
       <c r="T4">
-        <v>0.03328188605799406</v>
+        <v>1.202211464832485E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>1.544709346002</v>
+        <v>984.7387699312908</v>
       </c>
       <c r="R5">
-        <v>13.902384114018</v>
+        <v>5908.432619587745</v>
       </c>
       <c r="S5">
-        <v>6.836833157408185E-05</v>
+        <v>0.03059194301292239</v>
       </c>
       <c r="T5">
-        <v>7.679297574767467E-05</v>
+        <v>0.02361051216356835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>45.591472</v>
       </c>
       <c r="I6">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J6">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>22.96463720660266</v>
+        <v>15.34701143607822</v>
       </c>
       <c r="R6">
-        <v>206.681734859424</v>
+        <v>138.123102924704</v>
       </c>
       <c r="S6">
-        <v>0.001016407348789016</v>
+        <v>0.0004767710113657165</v>
       </c>
       <c r="T6">
-        <v>0.001141653497873316</v>
+        <v>0.0005519496305775034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>701.4059623763447</v>
@@ -886,10 +886,10 @@
         <v>6312.653661387103</v>
       </c>
       <c r="S7">
-        <v>0.0310439990072552</v>
+        <v>0.02178991209154717</v>
       </c>
       <c r="T7">
-        <v>0.03486937603986719</v>
+        <v>0.02522580786695575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>299.5301885216346</v>
+        <v>0.1415716519982222</v>
       </c>
       <c r="R8">
-        <v>1797.181131129808</v>
+        <v>1.274144867984</v>
       </c>
       <c r="S8">
-        <v>0.0132571083992573</v>
+        <v>4.398071897257668E-06</v>
       </c>
       <c r="T8">
-        <v>0.00992713809985089</v>
+        <v>5.091572476252331E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.4607474160319999</v>
+        <v>417.0538182298373</v>
       </c>
       <c r="R9">
-        <v>4.146726744287999</v>
+        <v>2502.322909379024</v>
       </c>
       <c r="S9">
-        <v>2.039253027937362E-05</v>
+        <v>0.01295621440953227</v>
       </c>
       <c r="T9">
-        <v>2.29053868526949E-05</v>
+        <v>0.009999458281575788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H10">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I10">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J10">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>187.7593900622</v>
+        <v>179.45301805938</v>
       </c>
       <c r="R10">
-        <v>1689.8345105598</v>
+        <v>1615.07716253442</v>
       </c>
       <c r="S10">
-        <v>0.008310169333243122</v>
+        <v>0.005574896276656734</v>
       </c>
       <c r="T10">
-        <v>0.009334184663776902</v>
+        <v>0.006453961895867581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H11">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I11">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J11">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>5734.710916482866</v>
+        <v>8201.558808862379</v>
       </c>
       <c r="R11">
-        <v>51612.39824834579</v>
+        <v>73814.02927976141</v>
       </c>
       <c r="S11">
-        <v>0.2538164337740077</v>
+        <v>0.2547900289488511</v>
       </c>
       <c r="T11">
-        <v>0.2850928023897797</v>
+        <v>0.2949660507888467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>2448.96555499985</v>
+        <v>1.65540113973</v>
       </c>
       <c r="R12">
-        <v>14693.7933299991</v>
+        <v>14.89861025757</v>
       </c>
       <c r="S12">
-        <v>0.108390416301345</v>
+        <v>5.142677314683206E-05</v>
       </c>
       <c r="T12">
-        <v>0.08116450427334983</v>
+        <v>5.953589409489866E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>3.7670812314</v>
+        <v>4876.621528970295</v>
       </c>
       <c r="R13">
-        <v>33.9037310826</v>
+        <v>29259.72917382177</v>
       </c>
       <c r="S13">
-        <v>0.0001667297860024227</v>
+        <v>0.1514973640372248</v>
       </c>
       <c r="T13">
-        <v>0.0001872749578366609</v>
+        <v>0.1169239349994377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H14">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I14">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J14">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>20.60311005489</v>
+        <v>20.27214095535734</v>
       </c>
       <c r="R14">
-        <v>123.61866032934</v>
+        <v>121.632845732144</v>
       </c>
       <c r="S14">
-        <v>0.0009118869276836728</v>
+        <v>0.0006297753270133692</v>
       </c>
       <c r="T14">
-        <v>0.0006828357429039131</v>
+        <v>0.0004860534034233595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H15">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I15">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J15">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>629.27814212719</v>
+        <v>926.4996377597573</v>
       </c>
       <c r="R15">
-        <v>3775.66885276314</v>
+        <v>5558.997826558543</v>
       </c>
       <c r="S15">
-        <v>0.02785164522026412</v>
+        <v>0.02878268327123687</v>
       </c>
       <c r="T15">
-        <v>0.02085576432528104</v>
+        <v>0.02221414616223015</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H16">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I16">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J16">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>268.7285404665075</v>
+        <v>0.1870045185373333</v>
       </c>
       <c r="R16">
-        <v>1074.91416186603</v>
+        <v>1.122027111224</v>
       </c>
       <c r="S16">
-        <v>0.0118938375077388</v>
+        <v>5.809491561556225E-06</v>
       </c>
       <c r="T16">
-        <v>0.005937532475439069</v>
+        <v>4.483699224999563E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.41336728443</v>
+        <v>550.8938221841661</v>
       </c>
       <c r="R17">
-        <v>2.48020370658</v>
+        <v>2203.575288736664</v>
       </c>
       <c r="S17">
-        <v>1.829550111607304E-05</v>
+        <v>0.0171140945487552</v>
       </c>
       <c r="T17">
-        <v>1.369996840301978E-05</v>
+        <v>0.008805641784857288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H18">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I18">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J18">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>198.2030167538446</v>
+        <v>184.3476026596947</v>
       </c>
       <c r="R18">
-        <v>1783.827150784602</v>
+        <v>1659.128423937252</v>
       </c>
       <c r="S18">
-        <v>0.008772400842580649</v>
+        <v>0.005726951682350979</v>
       </c>
       <c r="T18">
-        <v>0.009853374356857321</v>
+        <v>0.006629993833631249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H19">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I19">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J19">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>6053.689264124525</v>
+        <v>8425.256486831495</v>
       </c>
       <c r="R19">
-        <v>54483.20337712072</v>
+        <v>75827.30838148344</v>
       </c>
       <c r="S19">
-        <v>0.2679343113494629</v>
+        <v>0.2617394320042742</v>
       </c>
       <c r="T19">
-        <v>0.3009503464500119</v>
+        <v>0.3030112556308683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H20">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I20">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J20">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>2585.182880954318</v>
+        <v>1.700552238404667</v>
       </c>
       <c r="R20">
-        <v>15511.0972857259</v>
+        <v>15.304970145642</v>
       </c>
       <c r="S20">
-        <v>0.1144193506967336</v>
+        <v>5.28294393968088E-05</v>
       </c>
       <c r="T20">
-        <v>0.08567906827444961</v>
+        <v>6.115973677837158E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H21">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I21">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J21">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>3.976615306285999</v>
+        <v>5009.631477175027</v>
       </c>
       <c r="R21">
-        <v>35.78953775657399</v>
+        <v>30057.78886305017</v>
       </c>
       <c r="S21">
-        <v>0.0001760036957803052</v>
+        <v>0.155629457623745</v>
       </c>
       <c r="T21">
-        <v>0.0001976916392483957</v>
+        <v>0.1201130376283334</v>
       </c>
     </row>
   </sheetData>
